--- a/Timesheets/Week05_2020-10-05/Sahib_Bajwa-10_05_20.xlsx
+++ b/Timesheets/Week05_2020-10-05/Sahib_Bajwa-10_05_20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Boulder\Capstone\Time Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\4308_NASA\Timesheets\Week05_2020-10-05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F1A6A1-423C-4210-9766-56C93552C53C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040FA72D-7C5A-4D3E-86DD-1477669F04B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22650" yWindow="4170" windowWidth="12150" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,10 +628,10 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1">
+      <c r="G7" s="1"/>
+      <c r="H7" s="4">
         <v>0.5</v>
       </c>
-      <c r="H7" s="4"/>
       <c r="I7" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -738,11 +738,11 @@
       </c>
       <c r="G12" s="5">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="2"/>
